--- a/FY22/CE-QUAL-W2/CE-QUAL-W2_Workshop_Agenda_Aug_2022.xlsx
+++ b/FY22/CE-QUAL-W2/CE-QUAL-W2_Workshop_Agenda_Aug_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/todd/GitHub/environmentalsystems/Workshops/FY22/CE-QUAL-W2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B816FA02-5128-4245-8C61-9AB87BB306B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DADB5A-2A81-1242-B635-849316BCF0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="35820" windowHeight="21900" activeTab="1" xr2:uid="{7D882646-A55C-4A5C-840E-5C8671CF37BB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
   <si>
     <t>Lecture</t>
   </si>
@@ -127,13 +127,7 @@
     <t>1530-1630</t>
   </si>
   <si>
-    <t>Workshop 1.1</t>
-  </si>
-  <si>
     <t>Lecture 1.6</t>
-  </si>
-  <si>
-    <t>Workshop 1.2</t>
   </si>
   <si>
     <t>Task</t>
@@ -297,13 +291,7 @@
     <t>Zhong</t>
   </si>
   <si>
-    <t>Billy and Zhong</t>
-  </si>
-  <si>
     <t>Isaac &amp; Zhong</t>
-  </si>
-  <si>
-    <t>Todd &amp; Billy</t>
   </si>
   <si>
     <t>Todd &amp; Isaac</t>
@@ -512,6 +500,21 @@
       </rPr>
       <t>Water quality modeling</t>
     </r>
+  </si>
+  <si>
+    <t>Case Study 1.1</t>
+  </si>
+  <si>
+    <t>Case Study 1.2</t>
+  </si>
+  <si>
+    <t>Visualization?</t>
+  </si>
+  <si>
+    <t>Todd &amp; Lauren</t>
+  </si>
+  <si>
+    <t>Lauren</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,6 +651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -766,9 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,6 +801,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1307,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BF4E47-5ECA-4C22-A6F2-A43B1807EA59}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="163" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1316,7 +1328,7 @@
     <col min="1" max="2" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -1327,687 +1339,691 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="A1" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="8"/>
       <c r="H3" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H5" s="15" t="s">
-        <v>95</v>
+      <c r="H5" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H8" s="17" t="s">
-        <v>53</v>
+      <c r="H8" s="16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="F13" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.38541666666666702</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>0.38541666666666702</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.40625</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>0.40625</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.44791666666666702</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>0.44791666666666602</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.46875</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="F22" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>0.46875</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="H24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="H25" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>0.51041666666666596</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0.53125</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>0.53125</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="H31" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>0.57291666666666596</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B34" s="11">
+        <v>0.59375</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="F34" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>0.593749999999999</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="F35" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>0.60416666666666596</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>0.624999999999999</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>0.63541666666666596</v>
+      </c>
+      <c r="B39" s="11">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H39" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B40" s="11">
+        <v>0.65625</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>0.656249999999999</v>
+      </c>
+      <c r="B41" s="11">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="F41" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="28" t="s">
+      <c r="H41" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B42" s="11">
+        <v>0.67708333333333404</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="H42" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="B43" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>0.687499999999999</v>
+      </c>
+      <c r="B44" s="11">
+        <v>0.69791666666666696</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>0.69791666666666596</v>
+      </c>
+      <c r="B45" s="11">
+        <v>0.70833333333333404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>0.70833333333333204</v>
+      </c>
+      <c r="B46" s="11">
+        <v>0.71875</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="B12" s="12">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="B13" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="F13" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="B14" s="12">
-        <v>0.38541666666666702</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>0.38541666666666702</v>
-      </c>
-      <c r="B15" s="12">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="B16" s="12">
-        <v>0.40625</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>0.40625</v>
-      </c>
-      <c r="B17" s="12">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="B18" s="12">
-        <v>0.42708333333333298</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>0.42708333333333298</v>
-      </c>
-      <c r="B19" s="12">
-        <v>0.4375</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>0.4375</v>
-      </c>
-      <c r="B20" s="12">
-        <v>0.44791666666666702</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>0.44791666666666602</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="B22" s="12">
-        <v>0.46875</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="F22" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>0.46875</v>
-      </c>
-      <c r="B23" s="12">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="B24" s="12">
-        <v>0.48958333333333298</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="H24" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>0.48958333333333298</v>
-      </c>
-      <c r="B25" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="H25" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="B26" s="12">
-        <v>0.51041666666666696</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>0.51041666666666596</v>
-      </c>
-      <c r="B27" s="12">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="B28" s="12">
-        <v>0.53125</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>0.53125</v>
-      </c>
-      <c r="B29" s="12">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="B30" s="12">
-        <v>0.55208333333333304</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>0.55208333333333304</v>
-      </c>
-      <c r="B31" s="12">
-        <v>0.5625</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="H31" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>0.5625</v>
-      </c>
-      <c r="B32" s="12">
-        <v>0.57291666666666696</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>0.57291666666666596</v>
-      </c>
-      <c r="B33" s="12">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B34" s="12">
-        <v>0.59375</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="F34" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>0.593749999999999</v>
-      </c>
-      <c r="B35" s="12">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="F35" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>0.60416666666666596</v>
-      </c>
-      <c r="B36" s="12">
-        <v>0.61458333333333304</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>0.61458333333333304</v>
-      </c>
-      <c r="B37" s="12">
-        <v>0.625</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
-        <v>0.624999999999999</v>
-      </c>
-      <c r="B38" s="12">
-        <v>0.63541666666666696</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
-        <v>0.63541666666666596</v>
-      </c>
-      <c r="B39" s="12">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B40" s="12">
-        <v>0.65625</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
-        <v>0.656249999999999</v>
-      </c>
-      <c r="B41" s="12">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="B42" s="12">
-        <v>0.67708333333333404</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="F42" s="22"/>
-      <c r="H42" s="23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
-        <v>0.67708333333333304</v>
-      </c>
-      <c r="B43" s="12">
-        <v>0.6875</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="F43" s="22"/>
-      <c r="H43" s="24"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
-        <v>0.687499999999999</v>
-      </c>
-      <c r="B44" s="12">
-        <v>0.69791666666666696</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
-        <v>0.69791666666666596</v>
-      </c>
-      <c r="B45" s="12">
-        <v>0.70833333333333404</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
-        <v>0.70833333333333204</v>
-      </c>
-      <c r="B46" s="12">
-        <v>0.71875</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
